--- a/src/test/java/ApachePOI/Resources/WriteIntoAnExcelFile.xlsx
+++ b/src/test/java/ApachePOI/Resources/WriteIntoAnExcelFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
   <si>
     <t>Hello World</t>
   </si>
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,70 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/WriteIntoAnExcelFile.xlsx
+++ b/src/test/java/ApachePOI/Resources/WriteIntoAnExcelFile.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragip\IdeaProjects\Us_Batch7_Cucumber\src\test\java\ApachePOI\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924539A9-4103-458D-8F49-5AFF4D89A6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+  <si>
+    <t>Hello World!</t>
+  </si>
   <si>
     <t>Hello World</t>
   </si>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -339,106 +348,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="n" s="0">
+      <c r="B1" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0">
+        <v>6</v>
+      </c>
+      <c r="H2" s="0">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0">
+        <v>4</v>
+      </c>
+      <c r="F3" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0">
+        <v>7</v>
+      </c>
+      <c r="I3" s="0">
+        <v>8</v>
+      </c>
+      <c r="J3" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0">
+        <v>6</v>
+      </c>
+      <c r="H4" s="0">
+        <v>7</v>
+      </c>
+      <c r="I4" s="0">
+        <v>8</v>
+      </c>
+      <c r="J4" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0">
+        <v>6</v>
+      </c>
+      <c r="H5" s="0">
+        <v>7</v>
+      </c>
+      <c r="I5" s="0">
+        <v>8</v>
+      </c>
+      <c r="J5" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0">
+        <v>5</v>
+      </c>
+      <c r="G6" s="0">
+        <v>6</v>
+      </c>
+      <c r="H6" s="0">
+        <v>7</v>
+      </c>
+      <c r="I6" s="0">
+        <v>8</v>
+      </c>
+      <c r="J6" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0">
+        <v>5</v>
+      </c>
+      <c r="G7" s="0">
+        <v>6</v>
+      </c>
+      <c r="H7" s="0">
+        <v>7</v>
+      </c>
+      <c r="I7" s="0">
+        <v>8</v>
+      </c>
+      <c r="J7" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0">
+        <v>4</v>
+      </c>
+      <c r="F8" s="0">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0">
+        <v>6</v>
+      </c>
+      <c r="H8" s="0">
+        <v>7</v>
+      </c>
+      <c r="I8" s="0">
+        <v>8</v>
+      </c>
+      <c r="J8" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="C1" t="n" s="0">
+      <c r="C9" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D1" t="n" s="0">
+      <c r="D9" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="E1" t="n" s="0">
+      <c r="E9" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="F1" t="n" s="0">
+      <c r="F9" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="G1" t="n" s="0">
+      <c r="G9" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="H1" t="n" s="0">
+      <c r="H9" t="n" s="0">
         <v>7.0</v>
       </c>
-      <c r="I1" t="n" s="0">
+      <c r="I9" t="n" s="0">
         <v>8.0</v>
       </c>
-      <c r="J1" t="n" s="0">
+      <c r="J9" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n" s="0">
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C10" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="D10" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="E2" t="n" s="0">
+      <c r="E10" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="F2" t="n" s="0">
+      <c r="F10" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="G2" t="n" s="0">
+      <c r="G10" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="H2" t="n" s="0">
+      <c r="H10" t="n" s="0">
         <v>7.0</v>
       </c>
-      <c r="I2" t="n" s="0">
+      <c r="I10" t="n" s="0">
         <v>8.0</v>
       </c>
-      <c r="J2" t="n" s="0">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="J3" t="n" s="0">
+      <c r="J10" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
